--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
   <si>
     <t>zh_CN</t>
   </si>
@@ -553,6 +553,1062 @@
   </si>
   <si>
     <t xml:space="preserve">[name="安洁莉娜"]  果然还需要更加努力才行啊。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ふんふーん♪　どれどれ～……手紙に、特産物の小包、高額保険がかけられた通販商品、全部チェックOK――と。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  よし、これで今日のお仕事は全部終了だね！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  さて何しようかな？　お風呂、それともひとまずミルクティーでも飲もうか。あっ、前に買ったシトラスクリームミルフィーユがまだ残ってたっけ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  待ちなさい、アンジェリーナ！　あなた体重管理を……うう、食生活を見直すって自分に約束したでしょ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  アンジェリーナはん、まいど！　あんたはんも仕事終わったん？　せやったらウチの新入荷した商品見て行かへん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  うん、い、ふあーあ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  はぁ……返事の途中であくびしちゃった。ごめんねクロワッサン、あたしいっつも寝る時間早いから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ええって。今回入荷した中にな、あんたはんが前に言うとった龍門老街にあるアクセサリーショップが扱っとるオーダーメイドのヘアピンもあんねん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  もうめっちゃ頼み込んで、何とか店主に十セット卸してもろてん。絶対気に入るモンあると思うわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  気になるけど、でも……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  「でも、夜更かしすると目の下にクマができちゃう」やろ？　毎度おんなじこと言うから覚えてしもたわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ええってええって、キープしといたるから。空いてる時にいつでも来たってや、親友特別サービスやで！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  うんうん、ありがとう！　クロワッサン大好き！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ハハッ、お互い様やて。アンジェリーナはんが最新のファッション雑誌を貸してくれるやろ。しかもトレンドのポイントやコメントを書き添えて……せやないとウチもこんなええ品は仕入れられへん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  おかげさんで、ここ最近入荷した服やアクセサリーなんかはどれも艦内でめっちゃ人気やねん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  今月はごっつ儲かりそうやで。来週の休みは一緒にうまいモンでも食べに行こか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  焼肉？　ピザ？　それとも炎式の火鍋はどや？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  わぁ～！　聞いてたらなんだかよだれが……でも――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  「でも、最近は体重管理しないと」やろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ……食生活を見直してるんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  確かになぁ。アンジェリーナはんなら、体重を心配する必要なんてこれっぽっちもあらへんもんな。ホンマ羨ましいわぁ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  いっそのこと今度、本でも出してみぃひん？　『美少女になるためのダイエット101の法則』なんてタイトルで……どや？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  いやいや、そんなの絶対売れないでしょ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  物は試しって言うやろ。ほなあんたはんの能力をあまり知らん人をカモにするっちゅーのは？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  例えばこないだ新しく来たフェンツのボンボンはどや？　ハハッ、そういえば、あの子があんたはんと重量挙げで勝負した時、ウチも一儲けさせてもろたな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  もう……新人イジメを、よくそんな声を大にして言えるよね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  人聞き悪いで。これは情報格差をうまく利用したっちゅーやつや。トランスポーターやろうと商売人やろうと、情報は大事やろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  うーん……まぁ確かに……なんか気持ち的にはモヤモヤするけど。今度バイソンに会ったらまたケーキでもご馳走してあげようかな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほな、ウチは先に帰るわ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ん？　何やアレ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あっ、宿舎の入り口に……小包？　どうして小包がこんなところにあるの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  今日の分はちゃんと全部届けたのに……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ピンクの包装紙……なんだかいい香りがする。触った感じカクカクしてる……本か何かかな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あんたはんが注文した小説か雑誌とちゃうん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  雑誌なら毎月決まった日に送られてくるし、今月の分はもう届いてるよ。増刊もないはずだし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  それに最近は配達や後方支援の業務が多くて、毎日スケジュールがパンパンなんだよね。だから新しい小説を読む時間なんてないし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほな、誰かからのプレゼントちゃう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  プレゼント！？　そ、そんな……あたしにプレゼントする人なんているの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  そない驚かんでええやろ。アンジェリーナはんみたいな可愛い子、プレゼントもろてもおかしないやん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ……ありえないよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  受取人の名前も住所も書いてないし、見た感じ別の物と一緒に梱包されてたみたい。多分何かと一緒に配達される予定だったんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ここに落ちてるってことは、きっと朝、配達に出る時に急いでて、カバンから落ちちゃったんだね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  はぁ、またミスっちゃった……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  落ち込まんときや。こんなミス、大したことあらへんがな。再配達したったらええねん！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  うん。じゃあすぐ行こう！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  え、今から？　明日でええやん。今日はもう遅い言うとったやろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  「過ちを正したければ、最適な時は常に今である」って言葉があるから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  もう何箇所も回ったのに、全然届け先が見つからない……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  この小包には何の情報もないし、やっぱり昼間の受取人を一軒一軒訪ねて確認するしかないか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  クロワッサン、こんなに遅くまで付き合わせて、ほんとごめんね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  気にせんでええて。ウチが勝手についてきてんねんから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  それに、夜にトレーニングしたら、翌日の昼間はもっとシャキっとするもんやしな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  それよか、あんたはんそないに駆け回って疲れへんの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  大丈夫……ううん、本当はちょっと疲れたかな。でも荷物を受け取れてない人が心配やガッカリしてるかと思うと、こんな疲れは大したことないよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  さすがやわ……ウチの目に狂いはなかったわ。アンジェリーナはんは優秀なトランスポーターやてずっと思うてたんや。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  そ、そうかな？　あたしはまだまだだって思ってるけど。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  思い出すわぁ。ウチがロドスに来たばかりの頃、可愛い高校生がいきなりウチに頼み込んできた日のこと。どうしたら優秀なトランスポーターになれるか教えてください、言うてなぁ……あん時はめっちゃ驚いたで。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  だってペンギン急便はすごく有名だし。あのエンペラーが物流会社を作ったって、まだ家にいた時に聞いたことがあったんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  クロワッサンが、たくさんの荷物を一人で楽々運んでるのを見て、優秀な先輩だって一目でわかったの。だから勇気を振り絞って話しかけたんだよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  優秀な先輩やて！？　ハハッ！　今の言葉、テキサスはんとボスに聞かせてやりたいわぁ、そしたらウチの給料上がれへんやろか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あの頃、あたしはまだロドスに来たばっかりで、何をしてもうまくいかなかったから……クロワッサンがいてくれてよかったよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ん？　ウチは何もしてへんで。アンジェリーナはんが荷物なくして急にべそかきだした時にティッシュ渡したったくらいや。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  荷物をなくしたのだけが原因じゃないけど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ケルシー先生からは、前線へ出るのもいいし、後方支援部にいてもいいって言われてたんだよ。船で治療を受けてるトランスポーターみたいに長期の外勤任務に出てもいいって。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あたしは前線を選んだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ケルシー先生もあたしの選択を認めて支持してくれたの。しばらく訓練すれば、あたしの能力は戦場で役に立つだろうって。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  でも心の中には、まだたくさんモヤモヤがあって……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  そういう流れやったんか。せやけど、あんたはんはなんで前線に行くことにしたん？　戦いは嫌いなんやろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あたしは……多分、もっとスゴくなりたいからだと思う。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  誰かに迷惑をかけたくないし、ずっとみんなの後ろに隠れてるのも嫌だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  早くキラキラ輝く、一人前の大人になりたい。ケルシー先生や……{@nickname}みたいに。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あたしって欲張りなのかもね。前線にも出たい、トランスポーターの仕事も続けたいなんて。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  当時のあたしは本当に何をやってもダメで、毎日の訓練だけでヘトヘトになってたしね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  訓練した次の日には、ロドスはまた新しい場所に移動してて、配達に出ても道が全然わからなくて……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほんでいきなり泣きべそかいてたんか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あちゃー！　そん時のウチ、ホンマ鈍チンやな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  そんなことないよ！　あの時、ルートをマークする作業を辛抱強く手伝ってくれて……クロワッサンはあたしのヒーローだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ハハッ、新人ちゃんはきちんとお世話せんとな！　みんな新人時代に同じ経験しとるんやし！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほんでアンジェリーナはんは欲張りなんかやない。スゴくなりたいから努力する――これって普通のことやろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ウチかて、もっと儲けるために毎日頑張っとるんやで！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  うん、あたしはいつもクロワッサンから学んでるよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  えっ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あたしは、どうでもいいことをいろいろと考えちゃうんだよね……でもクロワッサンはそんなことしないから――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  それに、ロドスの任務もこなしながら、配送ルートが全然違う荷物を何十個も運んで、その日に何を仕入れるかってことも忘れない、超スゴい先輩だよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  おぉ！　ウチってホンマにそんなにスゴいん？　ゆーても目の前の仕事を頑張っとるだけやで。敵さん来たらガッと防いでボッコーンゆーて殴り飛ばすんとおんなじや！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  そう。こんな感じで、ボッコーンってね！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  ふぅ……あたしの自分勝手な悩みもなんだか吹っ飛んじゃったよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あんたはんにそない言われると、ウチもなんや恥ずかしなってきてもうたやん。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せやけど、アンジェリーナはんがスゴくなるんは、ウチは最初からわかってたんやで。ロドスのオペレーターとしても、トランスポーターとしてもな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  アンジェリーナはんが、ウチとは違うんはわかっとる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ウチがトランスポーターやっとるんは、ボスが人情に厚いからや。給料も悪ないし、この仕事がウチに合うてるってのもある。それに同僚たちもみんな愉快な連中やしな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  それに比べて、あんたはんはこの仕事がホンマに好きなんやろ？　いつも真剣に、差出人と受取人の気持ちを考えとる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  今クロワッサンが言ったことが、まさにあたしがトランスポーターになった理由だよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  お！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あの時、あたしは家を出たばかりで、近くの旧街区に隠れていた。見つかるのが怖くて、夜にならないと外にも出られなかった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  もうすぐ冬が来るような時期でね、風は湿ってて冷たかった。あたしは最後に学校に行った日のままの格好で、スカートだったから、寒くて、全身の感覚がなくなりそうなくらいだった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あの時のあたしは、自分が当てもなく彷徨う幽霊みたいだって思ってた。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  でも一人のトランスポーターがあたしを見つけてくれたんだ……というより、あたしの方から彼を見つけたのかもしれない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  その時、彼は隣の建物に配達をしてた。荷物を受け取った人の笑顔を見たあたしは、その笑顔が自分にも向けられてるような気がしてね、身体がなんだか少し……温かくなった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ほんでトランスポーターになろ思たん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  うん。たまたまそのチャンスに恵まれたんだよね……学ばなきゃいけないことがたくさんあって大変だったけど、でもとても充実してた。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あとからね、思ったの――自分が本当に存在してるって実感のほとんどは、誰かとのつながりから生み出されるんだって。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  家を出て、あたしを知る人たちとお別れした後、アンジェリーナという存在は少しずつ消えていった……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  はぁ、なんや悲しいなぁ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  うん、今思えばそうなんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  でも、それからあたしは配達を始めた。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  手紙や荷物を届けると、それを受け取った人たちは笑顔を見せた。驚いたことに、それを見たあたしの心にも何かを受け取ったような感覚が芽生えた。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  その瞬間だけ……昔よく知っていた喜怒哀楽の感情に触れられるような気がした。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  何度も何度も配達をしていって、他の人と感情を共有し合っているうちに、だんだんとあたしはあたし――アンジェリーナなんだっていう感覚を取り戻すことができたの。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  一方的に相手の気持ちに感応した思とるんやろけどな、届け人のアンジェリーナはんの気持ちも相手には伝わっとるんやで。さっきのおじいさんかて、またあんたはんに会えて嬉しそうやったろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  でもおじいさんは、この小包は自分宛じゃないって……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  「さっきの配達品は、外で働いてる孫が送ってくれたもので――」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  「特産品の甘いミカンだったよ。」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  「その本は、きっと他の人のだよ。私はもう年だから目があんまりよくない。うちのネオが本を送るはずはない」って。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  ごもっともやな。おじいさんを気遣う孫が、役に立たんもんを送るはずあらへんし。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  うーん……せやけどこのミカン、ホンマに甘いな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  役に立たないばかりか、人んちのお土産までもらっちゃった……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  人生はサプライズだらけやな。真夜中の配達で、ミカンにありつけるだけやのうて、ゲンコまでもらいそうになるとは思うてもみいひんやんか。ふう……危なかったでー。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  あたしも「月とラベンダー」ベルベットスカーフパジャマセットの通販購入者が、まさか夜は危険なマフィアだったなんて思いもしなかったよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  もし知ってたら、「月とラベンダー」の新商品カタログを追加購入してませんでしたか？　なんて、バカなこと訊かなかったよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  何度聞いてもホンマ笑けるわ。もしかして、ウチあん時我慢できてへんかった？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  うん、完全に吹き出してた。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  あのスカーフェイスのおっちゃんの表情、それとそばにおった二人の兄ちゃんの顔ときたら……もしあんたはんがあれ以上喋ってたらホンマに口封じされてたかもしれへんな！　アハハハッ！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  なんだか申し訳ないよ。あの人、あれを買ったこと、絶対他人には知られたくなかったよね？　あたしのせいだよ……クロワッサンが丸く収めてくれなかったらどうなってたことやら。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  「親分、お買い上げ毎度おおきに！　ご夫人が喜んでくれたらええねんけどなぁ。次回は新商品カタログの追加も検討したってや～」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  どや？　めっちゃセールスマンな感じするやろ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  すっごいプロっぽかったよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="クロワッサン"]  せやろ！　メモしとかなあかんな……配達する時はついでに副業も考えた方がええな。副収入が多くて困ることはあらへんもんな！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  でもあの人、例の商品が相当気に入ってるんだね……そうでなきゃあんな高額保険払わないよ。いつか彼が自分の趣味を堂々と言える日が来ればいいけど。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  もしかしたら、これもトランスポーターの存在意義なのかもね……彼にとっては、知らない人が商品を届けてくれる方が安心するんだろうね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  でも今回あたしは彼の信頼を裏切っちゃった……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="アンジェリーナ"]  やっぱりもっと頑張らなきゃ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Mm! Hmm hmm~! Let's see... all the letters, specialty packages, high value insured mail-order goodies. All checked off.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Wonderful! That's all the work there is for today!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  What should I do first? Take a hot bath, maybe enjoy a cup of milk tea first? I still have a bit of that orange cream cake left.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Wait, stop it, Angelina! You promised yourself to keep your weight under... Uh, to eat healthier?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Howdy there, Angelina! Ya clockin' out too, huh? Wanna come along and check out the goodies I got comin' in?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Sure... *Yawn*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Oh, sorry, Croissant. I couldn't fight that yawn. It's getting pretty late already.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Well, ya see, I ordered a custom hairpin from that one accessory shop down in Lungmen ya pointed out last time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Ya don't know the trouble I had to go through just to get the old man there to keep me ten of those trinkets. I guarantee there's something in there you'll like.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Oh, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  'You'll get bags under yer eyes if ya turn in late,' right? Ya sound like a broken record, 'fcourse I know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Alright, I'll keep yer stuff safe. Ya just come to me when you have time. Ya can count on good ol' Croissant to look after her friends!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Yep~ You're the best, Croissant!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Haha, if t'weren't for the fashion magazines ya lent me and all them notes you put in there, no way I could've picked out stuff that good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  My last few hauls of clothes and accessories've been mighty popular with the folks at Rhodes Island!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  I'm rakin' in a healthy hunk o' dough this month, much thanks to that. Let's get somethin' to eat come a day off next week.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  What'cha like? Barbecue? Pizza? Maybe even them Yen hotpots?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Uh, that's music to my tummy and mouth... but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  But ya gotta 'keep yer weight in check,' right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  ...I gotta eat healthy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Well, true, there's no need to worry about yer weight fer someone like you. Just sayin' so makes me jealous.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  How about we put out a little pamphlet next time? Somethin' like, '101 Weight Loss Tips for Cuties...'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Hold on, are you sure that'd sell?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  A girl can dream, can't she? Might could be there's some folks out there what don't know you, and are gullible enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Like that MountainDash boy who joined us last time. The li'l weightlifting contest you two had? Made me some decent money.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  We were picking on the new kid. Are you sure you should be gloating about it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Eh, I'm just usin' information to my advantage. Whether it's business or Messenger work, information's king.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Hm... yeah, but it still... kinda bothers me a little. Maybe we'll treat Bison to some cake next time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Alright, time to head home!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Huh, what's that by your door?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Oh... Is that a package? What's a package doing here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I already delivered everything I got today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  It's wrapped in pink, it smells nice, and it feels kinda... square? Probably a book.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Think it's them novels 'n magazines you like to read?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  The magazines show up at a set time every month, and I got everything I ordered this month already. There shouldn't be any more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Besides, I've been getting quite a bit of delivery and logistics work lately. My schedule's so full, I haven't had time to read any new novels at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  It's a present, then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  A present? O-Of course not. Why would anyone give me a present?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Now that ain't all that wild, is it? Yer such a hottie, put two 'n two together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  There's just no way, I'm telling you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  It's not addressed to anyone. I'm guessing it came with something else and was meant to be delivered together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I was kinda in a rush this morning, so it probably fell out of my bag by accident.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  *Sigh*, I screwed up again...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Eh, no big deal. You just gotta deliver it again!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Better get to it then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Huh, now? Tomorrow'd be a-okay, yeah? You just said it's gettin' late.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Someone once told me, 'If you are to correct your mistakes, there is no time better than the present.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  We've been to a few places already, but we still haven't found who the package is for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  There aren't any clues or anything on the thing itself, so I guess we're gonna have to keep trying every place I delivered to today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Sorry, Croissant. I didn't mean to have you run all over the place with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  I tagged along 'cause I wanted to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  'sides, get in some exercise at night and you wake up all bright-eyed and bushy-tailed the next day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  You sure you ain't tired? You been runnin' all up and down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I'm fine... Well, maybe a little, but it's nothing compared to how worried and disappointed the recipient of the package is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Well, if that ain't proof that you're one of the finest Messengers there is, I don't know what is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  R-Really? I always thought I still have a long way to go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Eh, reminds me of when I first came to Rhodes Island. This real pretty high school girl came up to me, asking me to teach her how to be a better Messenger. I was real surprised!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  That just tells you how amazing Penguin Logistics is! I mean, it was founded by that Emperor! I'd already heard of you guys when I was still back home!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I knew right away you must be a great Messenger when I saw you carrying all those packages like it was nothing, so that's why I mustered up the courage to talk to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Great Messenger! Haha, I wish you'd told Texas or the Baws that! Could've gotten me a raise or somethin'.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Thinking back, I just felt like I could never do anything right when I first got here... I'm glad you're here, Croissant.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Huh? I ain't done nothin'! Does that time you lost a package 'n started crying, and I handed you some tissues count?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I wasn't just crying because I lost a package...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Dr. Kal'tsit said I could choose a combat assignment or go to Logistics, where I would get some long-term field ops like the other Messengers getting treatment on the ship.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  And I chose combat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Dr. Kal'tsit agreed with my decision since she thought my abilities could be put to good use on the battlefield after some training.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  But, deep down in my heart, I was still uncertain about a lot of things.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  So why'd you decide to start fightin' anyway, Angelina? You don't look like the clobberin' type.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I... Well, I guess it's probably because I want to be just a little more awesome. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I don't want to give anyone trouble, and I don't want to always have to hide behind everyone else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I wanted to become an adult who could stand on her own right away. Just like Dr. Kal'tsit and... and... like {@nickname}.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I guess that probably makes me kinda greedy? I wanted to go to the front lines, but I didn't want to give up my work as a Messenger either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I couldn't do anything well back then, and all that training would always leave me exhausted each and every day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Then, the next day, I'd find Rhodes Island in a completely different place than the day before. I didn't even know how to get anywhere when I had to make deliveries...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Is that why you were cryin' your eyes out all a sudden?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Well yank my tail and call me Sora! I sure am a dummy for missin' that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  No, you're not. You were so patient and helped me find my way. You were my hero.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Haha, that's just how you take care of a rookie! We all gotta start somewhere!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  And how can you call yourself greedy? Workin' yer fluff off all 'cause you wanna get better? That's darned normal, if you ask me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Take yours truly, I'm giving hustlin' every day just to make myself more money!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Yeah, and I'm always trying to learn from you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Huh? What do ya mean?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Well, you don't ever get hung up on the things that don't matter...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Even when you're working on your Rhodes Island missions, you always have a couple dozen packages with completely different delivery routes, and you always have the day's purchases figured out on top of that! You're like a superstar mentor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Whoowee, I sure didn't know I was that amazin'. All I ever do is try my darndest to git 'er done, 'n beat up all the bad guys what come my way like, bam bam bam!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Just like that! Bam bam!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  When you get to whacking, it's like it blows away all the worries on my mind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Eh, when you put it like that, it makes a girl blush.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  And ya know, I always thought you were one amazin' girl yerself. That's as a Rhodes Island operator and as a Messenger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  And I know I ain't nothin' like you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  The reason I became a Messenger is cause the Baws is sincere and honest and got plenty of money. It so happens I'm good at it, and the gals make it a mighty fun place to be.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  You ain't like me. Yer passionate about this line o' work, and ya actually care about how the senders 'n recipients feel.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Actually, that's exactly the reason I became a Messenger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  No kiddin'?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Back when I'd just left home, for the first few days, all I could do was hide in an old neighborhood close by. I didn't go out until nighttime because I was too afraid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  It was almost winter. The wind was humid and chilly, and I was still wearing the skirt I wore on my last day to school. My whole body had gone all numb.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I was like an aimless ghost just wandering around.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Then, a Messenger found me, or should I say I found him?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  He was delivering letters right next door.  When they got the letters, the recipients smiled at him, and it felt like that smile was for me too. It kind of... warmed me up a little.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  And that's how you became a Messenger?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  The opportunity was right there, so I took it. I had lots to learn, and it was all very difficult, but it was also very fulfilling.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  After that, I started to believe that your interpersonal relationships are what really make you feel real, alive, existent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Ever since I left all the people that knew me, this Angelina has started to fade away bit by bit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Eh, sounds horrible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Yeah, looking back, I guess it kind of does.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  After that, I started giving delivery a shot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  To my surprise, each and every time I hand over a package or a letter to somebody, the smiles on their faces did truly give me something.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  It's only during these times that... I feel like I've come a little closer to all those emotions I once knew.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  So I kept delivering. I kept experiencing those emotions between people, and I began to slowly find who I once was, who Angelina used to be.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  You ain't the only one who gets those feelings, y'know? Them recipients get all glopped up by yer earnestness just the same. Like that pawpaw just now. You saw how happy he was to see you again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Too bad. He said the package wasn't his.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  'I got a grandson working out in the cities. He sent me that package of souvenirs—'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  'They're some really sweet tangerines.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  'That book you got is probably meant for somebody else. I'm old. My eyes aren't what they used to be. Neo wouldn't send me a book.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Well, he's right. A good grandson wouldn't send his pawpaw things he couldn't use.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Gotta say, though... These are some darn sweet tangerines.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Not only did we not do anything, he even shared his souvenirs with us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Life's little corners're full o' surprises. Just on this trip, we got us some tangerines, 'n we also almost got beat up. Who'd'a thunk it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Well, I didn't expect the same guy who ordered the new 'Moon &amp; Lavender' velvet scarf and pajamas set would turn into some dangerous gangster at night!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  If I'd known, I wouldn't have asked him if he ordered a new 'Moon &amp; Lavender' catalogue outright like an idiot!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  That was so funny, though! Cracked me right up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  That's right. Everyone could hear you laugh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Just thinkin' about that scar-faced guy, how he'n and them two other fellers looked! If you said just one more word, they just might'a put us six feet under! Hahahaha...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  I feel kinda bad, though. Maybe he really didn't want anyone else to know he bought that? That was my mistake. Thank goodness you were there to smooth things over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  'Much appreciated, Baws. We hope you and the lady will be satisfied with yer purchase today. Next time, how 'bout a catalogue too~?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Sounds just like a salesperson, no?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Yeah, very professional.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Great! Gotta get it memorized, then! The next time I go on deliveries, maybe I should take this on as a side job! Can't get enough side jobs!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  He's probably really fond of that item, though... I can't imagine him spending this much on insurance otherwise. I sure hope he'll be able to share his hobbies with everyone someday, openly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  This might just be the significance we Messengers have. It keeps him that much more at ease when it's a stranger that delivers his items.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  But I betrayed his trust this time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Angelina"]  Looks like I gotta work even harder.
 </t>
   </si>
   <si>
@@ -1464,13 +2520,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1478,13 +2534,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1492,13 +2548,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1506,13 +2562,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1520,13 +2576,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1534,13 +2590,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1548,13 +2604,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1562,13 +2618,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1576,13 +2632,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1590,13 +2646,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1604,13 +2660,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1618,13 +2674,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1632,13 +2688,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1646,13 +2702,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1660,13 +2716,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1674,13 +2730,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1688,13 +2744,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1702,13 +2758,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1716,13 +2772,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1730,13 +2786,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1744,13 +2800,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1758,13 +2814,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1772,13 +2828,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1786,13 +2842,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1800,13 +2856,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>292</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1814,13 +2870,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>293</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1828,13 +2884,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1842,13 +2898,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1856,13 +2912,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>296</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1870,13 +2926,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1884,13 +2940,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1898,13 +2954,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1912,13 +2968,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1926,13 +2982,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1940,13 +2996,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1954,13 +3010,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1968,13 +3024,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1982,13 +3038,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1996,13 +3052,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2010,13 +3066,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2024,13 +3080,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2038,13 +3094,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2052,13 +3108,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="D44" t="s">
-        <v>178</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2066,13 +3122,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2080,13 +3136,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2094,13 +3150,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="D47" t="s">
-        <v>181</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2108,13 +3164,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>314</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2122,13 +3178,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>315</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2136,13 +3192,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2150,13 +3206,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>317</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2164,13 +3220,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>318</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2178,13 +3234,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>319</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2192,13 +3248,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>320</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2206,13 +3262,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2220,13 +3276,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2234,13 +3290,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>323</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2248,13 +3304,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>324</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2262,13 +3318,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>325</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2276,13 +3332,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>326</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2290,13 +3346,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>327</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2304,13 +3360,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2318,13 +3374,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>329</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2332,13 +3388,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>330</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2346,13 +3402,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>331</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2360,13 +3416,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>332</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2374,13 +3430,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>333</v>
       </c>
       <c r="D67" t="s">
-        <v>201</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2388,13 +3444,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>334</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2402,13 +3458,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>335</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2416,13 +3472,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="D70" t="s">
-        <v>204</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2430,13 +3486,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2444,13 +3500,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>338</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2458,13 +3514,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>339</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2472,13 +3528,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="D74" t="s">
-        <v>208</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2486,13 +3542,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="D75" t="s">
-        <v>209</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2500,13 +3556,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="D76" t="s">
-        <v>210</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2514,13 +3570,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="D77" t="s">
-        <v>211</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2528,13 +3584,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="D78" t="s">
-        <v>212</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2542,13 +3598,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="D79" t="s">
-        <v>213</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2556,13 +3612,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2570,13 +3626,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>347</v>
       </c>
       <c r="D81" t="s">
-        <v>215</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2584,13 +3640,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>348</v>
       </c>
       <c r="D82" t="s">
-        <v>216</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2598,13 +3654,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>349</v>
       </c>
       <c r="D83" t="s">
-        <v>217</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2612,13 +3668,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>350</v>
       </c>
       <c r="D84" t="s">
-        <v>218</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2626,13 +3682,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>351</v>
       </c>
       <c r="D85" t="s">
-        <v>219</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2640,13 +3696,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>352</v>
       </c>
       <c r="D86" t="s">
-        <v>220</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2654,13 +3710,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2668,13 +3724,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>354</v>
       </c>
       <c r="D88" t="s">
-        <v>222</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2682,13 +3738,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>355</v>
       </c>
       <c r="D89" t="s">
-        <v>223</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2696,13 +3752,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="D90" t="s">
-        <v>224</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2710,13 +3766,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>357</v>
       </c>
       <c r="D91" t="s">
-        <v>225</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2724,13 +3780,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>358</v>
       </c>
       <c r="D92" t="s">
-        <v>226</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2738,13 +3794,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>359</v>
       </c>
       <c r="D93" t="s">
-        <v>227</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2752,13 +3808,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>360</v>
       </c>
       <c r="D94" t="s">
-        <v>228</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2766,13 +3822,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>361</v>
       </c>
       <c r="D95" t="s">
-        <v>229</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2780,13 +3836,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>362</v>
       </c>
       <c r="D96" t="s">
-        <v>230</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2794,13 +3850,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="D97" t="s">
-        <v>231</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2808,13 +3864,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="D98" t="s">
-        <v>232</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2822,13 +3878,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>365</v>
       </c>
       <c r="D99" t="s">
-        <v>233</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2836,13 +3892,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>366</v>
       </c>
       <c r="D100" t="s">
-        <v>234</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2850,13 +3906,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>367</v>
       </c>
       <c r="D101" t="s">
-        <v>235</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2864,13 +3920,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>236</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>368</v>
       </c>
       <c r="D102" t="s">
-        <v>236</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2878,13 +3934,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>369</v>
       </c>
       <c r="D103" t="s">
-        <v>237</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2892,13 +3948,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>370</v>
       </c>
       <c r="D104" t="s">
-        <v>238</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2906,13 +3962,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>371</v>
       </c>
       <c r="D105" t="s">
-        <v>239</v>
+        <v>503</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2920,13 +3976,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="D106" t="s">
-        <v>240</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2934,13 +3990,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>373</v>
       </c>
       <c r="D107" t="s">
-        <v>241</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2948,13 +4004,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>374</v>
       </c>
       <c r="D108" t="s">
-        <v>242</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2962,13 +4018,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>375</v>
       </c>
       <c r="D109" t="s">
-        <v>243</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2976,13 +4032,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>376</v>
       </c>
       <c r="D110" t="s">
-        <v>244</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2990,13 +4046,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="D111" t="s">
-        <v>245</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3004,13 +4060,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="D112" t="s">
-        <v>246</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3018,13 +4074,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="D113" t="s">
-        <v>247</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3032,13 +4088,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>380</v>
       </c>
       <c r="D114" t="s">
-        <v>248</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3046,13 +4102,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>381</v>
       </c>
       <c r="D115" t="s">
-        <v>249</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3060,13 +4116,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>382</v>
       </c>
       <c r="D116" t="s">
-        <v>250</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3074,13 +4130,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>383</v>
       </c>
       <c r="D117" t="s">
-        <v>251</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3088,13 +4144,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>384</v>
       </c>
       <c r="D118" t="s">
-        <v>252</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3102,13 +4158,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>385</v>
       </c>
       <c r="D119" t="s">
-        <v>253</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3116,13 +4172,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>386</v>
       </c>
       <c r="D120" t="s">
-        <v>254</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3130,13 +4186,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>387</v>
       </c>
       <c r="D121" t="s">
-        <v>255</v>
+        <v>519</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3144,13 +4200,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>388</v>
       </c>
       <c r="D122" t="s">
-        <v>256</v>
+        <v>520</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3158,13 +4214,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>389</v>
       </c>
       <c r="D123" t="s">
-        <v>257</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3172,13 +4228,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>390</v>
       </c>
       <c r="D124" t="s">
-        <v>258</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3186,13 +4242,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>259</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>391</v>
       </c>
       <c r="D125" t="s">
-        <v>259</v>
+        <v>523</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3200,13 +4256,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>392</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3214,13 +4270,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>261</v>
       </c>
       <c r="C127" t="s">
-        <v>129</v>
+        <v>393</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>525</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3228,13 +4284,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="C128" t="s">
-        <v>130</v>
+        <v>394</v>
       </c>
       <c r="D128" t="s">
-        <v>262</v>
+        <v>526</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3242,13 +4298,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>395</v>
       </c>
       <c r="D129" t="s">
-        <v>263</v>
+        <v>527</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3256,13 +4312,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="D130" t="s">
-        <v>264</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3270,13 +4326,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="C131" t="s">
-        <v>133</v>
+        <v>397</v>
       </c>
       <c r="D131" t="s">
-        <v>265</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3284,13 +4340,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>398</v>
       </c>
       <c r="D132" t="s">
-        <v>266</v>
+        <v>530</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3298,13 +4354,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>399</v>
       </c>
       <c r="D133" t="s">
-        <v>267</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_1.xlsx
@@ -1420,7 +1420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  Whoowee, I sure didn't know I was that amazin'. All I ever do is try my darndest to git 'er done, 'n beat up all the bad guys what come my way like, bam bam bam!
+    <t xml:space="preserve">[name="Croissant"]  Whoowee, I sure didn't know I was that amazin.' All I ever do is try my darndest to git 'er done, 'n beat up all the bad guys what come my way like, bam bam bam!
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_1.xlsx
@@ -564,7 +564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="アンジェリーナ"]  さて何しようかな？　お風呂、それともひとまずミルクティーでも飲もうか。あっ、前に買ったシトラスクリームミルフィーユがまだ残ってたっけ……
+    <t xml:space="preserve">[name="アンジェリーナ"]  さて何しようかな？　お風呂か、それともひとまずミルクティーでも飲む？　あっ、前に買ったシトラスクリームミルフィーユがまだ残ってたっけ……
 </t>
   </si>
   <si>
@@ -932,7 +932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="アンジェリーナ"]  あの時、あたしは家を出たばかりで、近くの旧街区に隠れていた。見つかるのが怖くて、夜にならないと外にも出られなかった。
+    <t xml:space="preserve">[name="アンジェリーナ"]  あの時、あたしは家を出たばかりで、近くの旧街区に隠れていた。見つかるのが怖くて、夜にならないと外にも出られなかったのを覚えてる。
 </t>
   </si>
   <si>
@@ -964,7 +964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="アンジェリーナ"]  家を出て、あたしを知る人たちとお別れした後、アンジェリーナという存在は少しずつ消えていった……
+    <t xml:space="preserve">[name="アンジェリーナ"]  家を出て、あたしを知る人たちとお別れした後、アンジェリーナという存在は少しずつ消えていくみたいだった……
 </t>
   </si>
   <si>
